--- a/biology/Zoologie/Astrotholus/Astrotholus.xlsx
+++ b/biology/Zoologie/Astrotholus/Astrotholus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrotholus est un genre d'étoiles de mer de la famille des Asterinidae, essentiellement antarctiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (13 juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 juillet 2023) :
 Astrotholus antarcticus (Fisher, 1940)
 Astrotholus infernalis Mah, 2023
 Astrotholus mei Mah, 2023
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Astrotholus a été créé en 2023 par le zoologiste américain Christopher L. Mah (d)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Astrotholus a été créé en 2023 par le zoologiste américain Christopher L. Mah (d).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christopher L. Mah, « New Genera, Species, and observations on the biology of Antarctic Valvatida (Asteroidea) », Zootaxa, Auckland, vol. 5310, no 1,‎ 2023, p. 1-88 (ISSN 1175-5326, e-ISSN 1175-5334, DOI 10.11646/zootaxa.5310.1.1).</t>
         </is>
